--- a/static/excels/customers.xlsx
+++ b/static/excels/customers.xlsx
@@ -14,135 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>email_private</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
   <si>
     <t>channel</t>
   </si>
   <si>
-    <t>company</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>date_insert</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>time_insert</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>email_private</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>GetDemo</t>
-  </si>
-  <si>
-    <t>ROOVTECT</t>
-  </si>
-  <si>
-    <t>SASICHAVIKIT Co.,ltd.</t>
-  </si>
-  <si>
-    <t>Saengthong</t>
-  </si>
-  <si>
-    <t>07/20/2021</t>
-  </si>
-  <si>
-    <t>07/19/2021</t>
-  </si>
-  <si>
-    <t>20-7-2021</t>
-  </si>
-  <si>
-    <t>contact@roovtect.com</t>
-  </si>
-  <si>
-    <t>panadda.saengthong@gmail.com</t>
-  </si>
-  <si>
-    <t>รบกวนให้ Sales ติดต่อครับ</t>
-  </si>
-  <si>
-    <t>ขอทราบรายละเอียดและราคาหน่อยค่ะ</t>
-  </si>
-  <si>
-    <t>Chavitya Seriwathanophas</t>
-  </si>
-  <si>
-    <t>ชวิทย์ เสรีวัฒโนภาส</t>
-  </si>
-  <si>
-    <t>Panadda</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>0817204240</t>
-  </si>
-  <si>
-    <t>0849403053</t>
-  </si>
-  <si>
-    <t>14:39:46</t>
-  </si>
-  <si>
-    <t>14:40:20</t>
-  </si>
-  <si>
-    <t>14:42:0</t>
-  </si>
-  <si>
-    <t>19:11:38</t>
-  </si>
-  <si>
-    <t>15:3:47</t>
-  </si>
-  <si>
-    <t>15:3:27</t>
-  </si>
-  <si>
-    <t>10:17:32</t>
-  </si>
-  <si>
-    <t>Maytika</t>
+    <t>kanekubpom</t>
+  </si>
+  <si>
+    <t>TWfJfugZGMhj6M04YSz1NPDmgkZ2</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>27/07/21</t>
+  </si>
+  <si>
+    <t>23:31:44</t>
+  </si>
+  <si>
+    <t>23:31:43</t>
+  </si>
+  <si>
+    <t>23:31:41</t>
   </si>
 </sst>
 </file>
@@ -500,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,158 +506,60 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="R3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="R4" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/static/excels/customers.xlsx
+++ b/static/excels/customers.xlsx
@@ -14,78 +14,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date_insert</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>company</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
   <si>
     <t>tel</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time_insert</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>email_private</t>
   </si>
   <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>kanekubpom</t>
-  </si>
-  <si>
-    <t>TWfJfugZGMhj6M04YSz1NPDmgkZ2</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>27/07/21</t>
-  </si>
-  <si>
-    <t>23:31:44</t>
-  </si>
-  <si>
-    <t>23:31:43</t>
-  </si>
-  <si>
-    <t>23:31:41</t>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>GetDemo</t>
+  </si>
+  <si>
+    <t>ROOVTECT</t>
+  </si>
+  <si>
+    <t>SASICHAVIKIT Co.,ltd.</t>
+  </si>
+  <si>
+    <t>07/20/2021</t>
+  </si>
+  <si>
+    <t>20-7-2021</t>
+  </si>
+  <si>
+    <t>contact@roovtect.com</t>
+  </si>
+  <si>
+    <t>รบกวนให้ Sales ติดต่อครับ</t>
+  </si>
+  <si>
+    <t>Chavitya Seriwathanophas</t>
+  </si>
+  <si>
+    <t>ชวิทย์ เสรีวัฒโนภาส</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>0817204240</t>
+  </si>
+  <si>
+    <t>14:39:46</t>
+  </si>
+  <si>
+    <t>14:40:20</t>
+  </si>
+  <si>
+    <t>15:3:47</t>
+  </si>
+  <si>
+    <t>15:3:27</t>
+  </si>
+  <si>
+    <t>Maytika</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,60 +536,79 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
